--- a/webworkprogress_April_2019.xlsx
+++ b/webworkprogress_April_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Probook4.DESKTOP-94EL945\Desktop\Azam soft Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\azam-st-laravell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +240,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -445,7 +451,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,6 +537,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,7 +872,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,10 +991,8 @@
       <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="12"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="24"/>
       <c r="K6" s="20" t="s">
         <v>4</v>
@@ -1001,10 +1020,10 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="12"/>
+      <c r="H7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="30"/>
       <c r="J7" s="24"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -1030,10 +1049,10 @@
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="12"/>
+      <c r="H8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="24"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -1147,14 +1166,16 @@
       <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="24"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -1174,14 +1195,16 @@
       <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="24"/>
       <c r="K14" s="21" t="s">
         <v>5</v>
@@ -1203,14 +1226,16 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="24"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -1221,12 +1246,8 @@
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1624,7 +1645,7 @@
       <c r="M39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="K6:M13"/>
     <mergeCell ref="K14:M22"/>
@@ -1636,6 +1657,9 @@
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/webworkprogress_April_2019.xlsx
+++ b/webworkprogress_April_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="srs rizqdoor" sheetId="5" r:id="rId1"/>
@@ -448,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -919,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -944,153 +950,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="23" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,6 +1038,96 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="24" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1155,12 +1145,7 @@
     <cellStyle name="Style 5" xfId="8"/>
     <cellStyle name="Style 6" xfId="9"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1257,13 +1242,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB2B2B2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FFB2B2B2"/>
         </left>
@@ -1273,6 +1251,13 @@
         <top style="thin">
           <color rgb="FFB2B2B2"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FFB2B2B2"/>
         </bottom>
@@ -1320,16 +1305,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A1:E20" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5" headerRowCellStyle="Note">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4" displayName="Table4" ref="A1:E20" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Note">
   <autoFilter ref="A1:E20"/>
   <sortState ref="A2:D20">
-    <sortCondition sortBy="fontColor" ref="B1:B20" dxfId="4"/>
+    <sortCondition sortBy="fontColor" ref="B1:B20" dxfId="3"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="No" dataDxfId="3" dataCellStyle="Note"/>
-    <tableColumn id="2" name="Priority  " dataDxfId="2" dataCellStyle="Note"/>
+    <tableColumn id="1" name="No" dataDxfId="2" dataCellStyle="Note"/>
+    <tableColumn id="2" name="Priority  " dataDxfId="1" dataCellStyle="Note"/>
     <tableColumn id="3" name="Complexity"/>
-    <tableColumn id="4" name="Requirements" dataDxfId="1" dataCellStyle="Note"/>
+    <tableColumn id="4" name="Requirements" dataDxfId="0" dataCellStyle="Note"/>
     <tableColumn id="5" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1625,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,306 +1624,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
+      <c r="A3" s="28">
         <v>5</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="64">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="64">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="28">
         <v>6</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="76"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+      <c r="A7" s="28">
         <v>7</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="76"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="76"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="28">
         <v>13</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="A11" s="28">
         <v>14</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+      <c r="A12" s="28">
         <v>9</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="64">
+      <c r="A14" s="28">
         <v>11</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
+      <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="64">
+      <c r="A16" s="28">
         <v>16</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="76"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="64">
+      <c r="A17" s="28">
         <v>18</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+      <c r="A18" s="28">
         <v>15</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="76"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="A19" s="28">
         <v>17</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="76"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+      <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="76"/>
+      <c r="E20" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -1968,91 +1953,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2067,53 +2052,53 @@
       <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2131,165 +2116,165 @@
       <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="17">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="20" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="17">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2298,26 +2283,26 @@
       <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2326,26 +2311,26 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2354,122 +2339,122 @@
       <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <v>17</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="17">
+      <c r="B23" s="14">
         <v>18</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2481,25 +2466,25 @@
       <c r="G23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="46"/>
+      <c r="J23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="17">
+      <c r="B24" s="14">
         <v>19</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2511,23 +2496,23 @@
       <c r="G24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="17">
+      <c r="B25" s="14">
         <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -2539,23 +2524,23 @@
       <c r="G25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="17">
+      <c r="B26" s="14">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7" t="s">
         <v>55</v>
       </c>
@@ -2565,17 +2550,17 @@
       <c r="G26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="17">
+      <c r="B27" s="14">
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2593,51 +2578,51 @@
       <c r="G27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="17">
+      <c r="B28" s="14">
         <v>23</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="17">
+      <c r="B29" s="14">
         <v>24</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="17">
+      <c r="B30" s="14">
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2655,17 +2640,17 @@
       <c r="G30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="17">
+      <c r="B31" s="14">
         <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2683,17 +2668,17 @@
       <c r="G31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="17">
+      <c r="B32" s="14">
         <v>27</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2711,17 +2696,17 @@
       <c r="G32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="17">
+      <c r="B33" s="14">
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2739,17 +2724,17 @@
       <c r="G33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="54"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="17">
+      <c r="B34" s="14">
         <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2767,20 +2752,20 @@
       <c r="G34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="54"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="17">
+      <c r="B35" s="14">
         <v>30</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
@@ -2793,28 +2778,28 @@
       <c r="G35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="54"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="17">
+      <c r="B36" s="14">
         <v>31</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2836,12 +2821,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J1:L5"/>
-    <mergeCell ref="J6:L13"/>
-    <mergeCell ref="J14:L22"/>
-    <mergeCell ref="J23:L32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C14:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:I8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
@@ -2852,6 +2839,12 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="C28:I29"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J1:L5"/>
+    <mergeCell ref="J6:L13"/>
+    <mergeCell ref="J14:L22"/>
+    <mergeCell ref="J23:L32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
@@ -2862,14 +2855,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:I8"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2877,109 +2862,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -2999,18 +2972,14 @@
       <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="19" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -3030,16 +2999,12 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="69"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -3059,16 +3024,12 @@
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="69"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>4</v>
@@ -3088,16 +3049,12 @@
       <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="69"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>5</v>
@@ -3117,52 +3074,44 @@
       <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="69"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>8</v>
@@ -3176,20 +3125,18 @@
       <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H13" s="69"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>9</v>
@@ -3203,22 +3150,20 @@
       <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="20" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>10</v>
@@ -3232,20 +3177,18 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H15" s="69"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>11</v>
@@ -3259,190 +3202,177 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H16" s="69"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H17" s="69"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H20" s="69"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H21" s="69"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>17</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H22" s="69"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>18</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="21" t="s">
+      <c r="H23" s="69"/>
+      <c r="I23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>19</v>
       </c>
-      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H24" s="69"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>20</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>21</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>22</v>
@@ -3452,14 +3382,12 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H27" s="69"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>23</v>
@@ -3469,14 +3397,12 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H28" s="69"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>24</v>
@@ -3486,14 +3412,12 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H29" s="69"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>25</v>
@@ -3503,14 +3427,12 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H30" s="69"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>26</v>
@@ -3520,50 +3442,44 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="H31" s="69"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>27</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>28</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="23"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>29</v>
@@ -3573,14 +3489,12 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="23"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
         <v>30</v>
@@ -3590,26 +3504,22 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="23"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>31</v>
       </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="23"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3617,14 +3527,12 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="23"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3632,14 +3540,12 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="23"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3647,43 +3553,21 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="23"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="K6:M13"/>
-    <mergeCell ref="K14:M22"/>
-    <mergeCell ref="K23:M32"/>
-    <mergeCell ref="K1:M5"/>
-    <mergeCell ref="J1:J39"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="I6:K13"/>
+    <mergeCell ref="I14:K22"/>
+    <mergeCell ref="I23:K32"/>
+    <mergeCell ref="I1:K5"/>
+    <mergeCell ref="H1:H39"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
